--- a/Data/Processed/Angiosperms/missing_powo_ipni/Rhizophoraceae.xlsx
+++ b/Data/Processed/Angiosperms/missing_powo_ipni/Rhizophoraceae.xlsx
@@ -1367,7 +1367,7 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -1455,7 +1455,7 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
